--- a/КнигаДР.xlsx
+++ b/КнигаДР.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kukushkina\Documents\OTUS_PostgreSQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc_txt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Аваков Денис Юрьевич</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Шевелев Павел Сергеевич</t>
+  </si>
+  <si>
+    <t>Дьяченко Никита Николаевич</t>
+  </si>
+  <si>
+    <t>Калюк Антон Валерьевич</t>
+  </si>
+  <si>
+    <t>Ртищев Сергей Иванович</t>
   </si>
 </sst>
 </file>
@@ -474,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -496,12 +505,12 @@
         <v>31053</v>
       </c>
       <c r="C1" s="5">
-        <f ca="1">(NOWDAY-B1)/365.25</f>
-        <v>39.359342915811091</v>
+        <f t="shared" ref="C1:C32" ca="1" si="0">(NOWDAY-B1)/365.25</f>
+        <v>39.367556468172488</v>
       </c>
       <c r="D1" s="4">
         <f ca="1">TODAY()</f>
-        <v>45429</v>
+        <v>45432</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -512,8 +521,8 @@
         <v>32156</v>
       </c>
       <c r="C2" s="5">
-        <f ca="1">(NOWDAY-B2)/365.25</f>
-        <v>36.33949349760438</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36.347707049965777</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -524,8 +533,8 @@
         <v>30344</v>
       </c>
       <c r="C3" s="5">
-        <f ca="1">(NOWDAY-B3)/365.25</f>
-        <v>41.300479123887747</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41.308692676249144</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -536,8 +545,8 @@
         <v>33272</v>
       </c>
       <c r="C4" s="5">
-        <f ca="1">(NOWDAY-B4)/365.25</f>
-        <v>33.284052019164953</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.29226557152635</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -548,8 +557,8 @@
         <v>34370</v>
       </c>
       <c r="C5" s="5">
-        <f ca="1">(NOWDAY-B5)/365.25</f>
-        <v>30.277891854893909</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.286105407255306</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -560,284 +569,320 @@
         <v>32182</v>
       </c>
       <c r="C6" s="5">
-        <f ca="1">(NOWDAY-B6)/365.25</f>
-        <v>36.268309377138948</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36.276522929500345</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3">
-        <v>29669</v>
+        <v>36570</v>
       </c>
       <c r="C7" s="5">
         <f ca="1">(NOWDAY-B7)/365.25</f>
-        <v>43.148528405201915</v>
+        <v>24.262833675564682</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>32957</v>
+        <v>29669</v>
       </c>
       <c r="C8" s="5">
-        <f ca="1">(NOWDAY-B8)/365.25</f>
-        <v>34.14647501711157</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43.156741957563312</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3">
-        <v>33298</v>
+        <v>32957</v>
       </c>
       <c r="C9" s="5">
-        <f ca="1">(NOWDAY-B9)/365.25</f>
-        <v>33.212867898699521</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>34.154688569472967</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
-        <v>32233</v>
+        <v>33298</v>
       </c>
       <c r="C10" s="5">
-        <f ca="1">(NOWDAY-B10)/365.25</f>
-        <v>36.128678986995212</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.221081451060918</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3">
-        <v>32605</v>
+        <v>32233</v>
       </c>
       <c r="C11" s="5">
-        <f ca="1">(NOWDAY-B11)/365.25</f>
-        <v>35.110198494182065</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36.136892539356602</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>36995</v>
+        <v>32605</v>
       </c>
       <c r="C12" s="5">
-        <f ca="1">(NOWDAY-B12)/365.25</f>
-        <v>23.091033538672143</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>35.118412046543462</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3">
-        <v>33352</v>
+        <v>36995</v>
       </c>
       <c r="C13" s="5">
-        <f ca="1">(NOWDAY-B13)/365.25</f>
-        <v>33.065023956194388</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23.09924709103354</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3">
-        <v>30437</v>
+        <v>25316</v>
       </c>
       <c r="C14" s="5">
         <f ca="1">(NOWDAY-B14)/365.25</f>
-        <v>41.045859000684466</v>
+        <v>55.074606433949349</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B15" s="3">
-        <v>29712</v>
+        <v>33352</v>
       </c>
       <c r="C15" s="5">
-        <f ca="1">(NOWDAY-B15)/365.25</f>
-        <v>43.030800821355236</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.073237508555785</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" s="3">
-        <v>27521</v>
+        <v>30437</v>
       </c>
       <c r="C16" s="5">
-        <f ca="1">(NOWDAY-B16)/365.25</f>
-        <v>49.029431895961672</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41.054072553045856</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3">
-        <v>31565</v>
+        <v>29712</v>
       </c>
       <c r="C17" s="5">
-        <f ca="1">(NOWDAY-B17)/365.25</f>
-        <v>37.957563312799451</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43.039014373716633</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B18" s="3">
-        <v>32706</v>
+        <v>27521</v>
       </c>
       <c r="C18" s="5">
-        <f ca="1">(NOWDAY-B18)/365.25</f>
-        <v>34.833675564681727</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>49.037645448323069</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3">
-        <v>28705</v>
+        <v>29362</v>
       </c>
       <c r="C19" s="5">
         <f ca="1">(NOWDAY-B19)/365.25</f>
-        <v>45.787816563997261</v>
+        <v>43.997262149212865</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B20" s="3">
-        <v>33473</v>
+        <v>31565</v>
       </c>
       <c r="C20" s="5">
-        <f ca="1">(NOWDAY-B20)/365.25</f>
-        <v>32.733744010951405</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>37.965776865160848</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>33502</v>
+        <v>32706</v>
       </c>
       <c r="C21" s="5">
-        <f ca="1">(NOWDAY-B21)/365.25</f>
-        <v>32.654346338124569</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>34.841889117043124</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B22" s="3">
-        <v>36426</v>
+        <v>28705</v>
       </c>
       <c r="C22" s="5">
-        <f ca="1">(NOWDAY-B22)/365.25</f>
-        <v>24.648870636550306</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45.796030116358658</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3">
-        <v>22555</v>
+        <v>33473</v>
       </c>
       <c r="C23" s="5">
-        <f ca="1">(NOWDAY-B23)/365.25</f>
-        <v>62.625598904859686</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32.741957563312802</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B24" s="3">
-        <v>37535</v>
+        <v>33502</v>
       </c>
       <c r="C24" s="5">
-        <f ca="1">(NOWDAY-B24)/365.25</f>
-        <v>21.612594113620808</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32.662559890485966</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3">
-        <v>33883</v>
+        <v>36426</v>
       </c>
       <c r="C25" s="5">
-        <f ca="1">(NOWDAY-B25)/365.25</f>
-        <v>31.611225188227241</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24.657084188911703</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B26" s="3">
-        <v>33518</v>
+        <v>22555</v>
       </c>
       <c r="C26" s="5">
-        <f ca="1">(NOWDAY-B26)/365.25</f>
-        <v>32.610540725530456</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>62.633812457221083</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B27" s="3">
-        <v>32816</v>
+        <v>37535</v>
       </c>
       <c r="C27" s="5">
-        <f ca="1">(NOWDAY-B27)/365.25</f>
-        <v>34.53251197809719</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>21.620807665982205</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B28" s="3">
-        <v>28475</v>
+        <v>33883</v>
       </c>
       <c r="C28" s="5">
-        <f ca="1">(NOWDAY-B28)/365.25</f>
-        <v>46.417522245037645</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>31.619438740588638</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3">
+        <v>33518</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.618754277891853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="3">
+        <v>32816</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>34.540725530458587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3">
+        <v>28475</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>46.425735797399042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B32" s="3">
         <v>27364</v>
       </c>
-      <c r="C29" s="5">
-        <f ca="1">(NOWDAY-B29)/365.25</f>
-        <v>49.459274469541413</v>
+      <c r="C32" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>49.46748802190281</v>
       </c>
     </row>
   </sheetData>
